--- a/tabs/tab03-Arch_Test.xlsx
+++ b/tabs/tab03-Arch_Test.xlsx
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>401.4543736168159</v>
+        <v>401.454373616816</v>
       </c>
       <c r="C2">
-        <v>2.656667594697758e-89</v>
+        <v>2.656667594697571e-89</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>555.7031737090756</v>
+        <v>555.7358536851798</v>
       </c>
       <c r="C3">
-        <v>2.140863811326938e-121</v>
+        <v>2.106166372100626e-121</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>655.8288550397401</v>
+        <v>655.9119368440925</v>
       </c>
       <c r="C4">
-        <v>7.935414424904574e-142</v>
+        <v>7.613003885475089e-142</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>740.62184805377</v>
+        <v>740.7276516675523</v>
       </c>
       <c r="C5">
-        <v>5.568610385989138e-159</v>
+        <v>5.282429883020635e-159</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>805.5104247177942</v>
+        <v>805.6923915423251</v>
       </c>
       <c r="C6">
-        <v>7.43319842513844e-172</v>
+        <v>6.789048530356645e-172</v>
       </c>
     </row>
   </sheetData>

--- a/tabs/tab03-Arch_Test.xlsx
+++ b/tabs/tab03-Arch_Test.xlsx
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>401.454373616816</v>
+        <v>401.4543736168161</v>
       </c>
       <c r="C2">
-        <v>2.656667594697571e-89</v>
+        <v>2.656667594697455e-89</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>555.7358536851798</v>
+        <v>555.7358536851797</v>
       </c>
       <c r="C3">
-        <v>2.106166372100626e-121</v>
+        <v>2.106166372100746e-121</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         <v>655.9119368440925</v>
       </c>
       <c r="C4">
-        <v>7.613003885475089e-142</v>
+        <v>7.613003885475405e-142</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>740.7276516675523</v>
       </c>
       <c r="C5">
-        <v>5.282429883020635e-159</v>
+        <v>5.282429883020628e-159</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>805.6923915423251</v>
+        <v>805.6923915423253</v>
       </c>
       <c r="C6">
-        <v>6.789048530356645e-172</v>
+        <v>6.789048530356209e-172</v>
       </c>
     </row>
   </sheetData>
